--- a/BballMVC/_Documentation/BoxScoreAdjusted.xlsx
+++ b/BballMVC/_Documentation/BoxScoreAdjusted.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\wwwroot\Test\mrroot123\mrroot123\BballMVCproject\BballMVC\_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1F4DBF-85FE-439B-B22D-784E64EC9208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E68AA01-D514-4055-A032-4AE0C4ECA4F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="1980" windowWidth="27300" windowHeight="13620" activeTab="2" xr2:uid="{7E75B28B-1B7C-4F64-9AB6-4E868FF10FB5}"/>
+    <workbookView xWindow="360" yWindow="195" windowWidth="25200" windowHeight="13365" activeTab="4" xr2:uid="{7E75B28B-1B7C-4F64-9AB6-4E868FF10FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Avgs" sheetId="6" r:id="rId1"/>
     <sheet name="Lg Avgs" sheetId="5" r:id="rId2"/>
     <sheet name="BxSC Adjs" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="BS cols" sheetId="7" r:id="rId4"/>
     <sheet name="Vars" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -2835,7 +2835,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:CC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="Z1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
@@ -5655,8 +5655,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B48"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6065,8 +6066,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
